--- a/config_Release/activity_052_qfhl_config.xlsx
+++ b/config_Release/activity_052_qfhl_config.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Award1" sheetId="1" r:id="rId1"/>
-    <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="Box_exchange" sheetId="3" r:id="rId3"/>
+    <sheet name="cfg" sheetId="5" r:id="rId1"/>
+    <sheet name="Award1" sheetId="1" r:id="rId2"/>
+    <sheet name="All_Task" sheetId="2" r:id="rId3"/>
     <sheet name="Award_sw" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>pay_item_key</t>
+  </si>
+  <si>
+    <t>PerNeed</t>
+  </si>
+  <si>
+    <t>s_time</t>
+  </si>
+  <si>
+    <t>e_time</t>
+  </si>
+  <si>
+    <t>condiy_key</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>data_other_type</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0","prop_grade",</t>
+  </si>
+  <si>
+    <t>300,10</t>
+  </si>
+  <si>
+    <t>qfhl_lottery</t>
+  </si>
+  <si>
+    <t>qfhl_1_lottery</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -37,34 +76,34 @@
     <t>server_award_id</t>
   </si>
   <si>
-    <t>activity_icon_gift270_sqm</t>
-  </si>
-  <si>
-    <t>华为手机</t>
-  </si>
-  <si>
-    <t>activity_icon_gift52</t>
-  </si>
-  <si>
-    <t>运动手环</t>
-  </si>
-  <si>
-    <t>activity_icon_gift272_sqm</t>
+    <t>activity_icon_gift151_mdkt</t>
+  </si>
+  <si>
+    <t>美的空调</t>
+  </si>
+  <si>
+    <t>activity_icon_gift151_pbdn</t>
+  </si>
+  <si>
+    <t>平板电脑</t>
+  </si>
+  <si>
+    <t>activity_icon_gift151_kl</t>
   </si>
   <si>
     <t>可乐12瓶</t>
   </si>
   <si>
-    <t>activity_icon_gift271_sqm</t>
-  </si>
-  <si>
-    <t>猴菇饼干</t>
-  </si>
-  <si>
-    <t>activity_icon_gift273_sqm</t>
-  </si>
-  <si>
-    <t>卷纸16卷</t>
+    <t>activity_icon_gift151_qzs</t>
+  </si>
+  <si>
+    <t>亲嘴烧30片</t>
+  </si>
+  <si>
+    <t>activity_icon_gift151_cz</t>
+  </si>
+  <si>
+    <t>抽纸五包</t>
   </si>
   <si>
     <t>ty_icon_flq2</t>
@@ -127,6 +166,18 @@
     <t>box_exchange_id</t>
   </si>
   <si>
+    <t>change_type</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_96</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_97</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_98</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
@@ -136,31 +187,31 @@
     <t>offset</t>
   </si>
   <si>
-    <t>activity_icon_gift269_sqm</t>
-  </si>
-  <si>
-    <t>金龙鱼大米</t>
+    <t>activity_icon_gift151_jlyy</t>
+  </si>
+  <si>
+    <t>金龙鱼油900ml</t>
   </si>
   <si>
     <t>0,20,50,100,200,400</t>
   </si>
   <si>
-    <t>activity_icon_gift268_sqm</t>
-  </si>
-  <si>
-    <t>索尼耳机</t>
+    <t>activity_icon_gift151_ysyn</t>
+  </si>
+  <si>
+    <t>椰汁24盒</t>
   </si>
   <si>
     <t>0,100,500,1000,1500,2200</t>
   </si>
   <si>
-    <t>activity_icon_gift103_xlx</t>
-  </si>
-  <si>
-    <t>高级旅行箱</t>
-  </si>
-  <si>
-    <t>0,100,500,1000,1500,4000</t>
+    <t>activity_icon_gift151_dg</t>
+  </si>
+  <si>
+    <t>美的电火锅</t>
+  </si>
+  <si>
+    <t>0,100,500,1000,1500,3500</t>
   </si>
 </sst>
 </file>
@@ -168,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -202,6 +253,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,8 +342,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,30 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,82 +388,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,25 +398,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,139 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,16 +608,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +626,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -616,16 +656,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +678,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,145 +709,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,10 +1209,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1623110400</v>
+      </c>
+      <c r="F2">
+        <v>1623686399</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1176,327 +1305,277 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12073</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12074</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
-        <v>12035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12076</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12036</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12077</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12037</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12038</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12079</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12039</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12080</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12040</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12081</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12041</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12082</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12042</v>
+        <v>40</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12083</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3">
-        <v>12043</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12084</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3">
-        <v>12044</v>
+        <v>44</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12085</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>26</v>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3">
-        <v>12045</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12086</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3">
-        <v>12046</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1000614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1000615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1000616</v>
+        <v>46</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12087</v>
       </c>
     </row>
   </sheetData>
@@ -1509,44 +1588,73 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="2">
+        <v>1000655</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="2">
+        <v>1000656</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>92</v>
+      <c r="B4" s="2">
+        <v>1000657</v>
+      </c>
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1561,24 +1669,29 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
@@ -1586,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
@@ -1600,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
@@ -1614,13 +1727,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_052_qfhl_config.xlsx
+++ b/config_Release/activity_052_qfhl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>line</t>
   </si>
@@ -52,10 +52,10 @@
     <t>300,10</t>
   </si>
   <si>
-    <t>qfhl_lottery</t>
-  </si>
-  <si>
-    <t>qfhl_1_lottery</t>
+    <t>pjkh_lottery</t>
+  </si>
+  <si>
+    <t>pjkh_lottery_1</t>
   </si>
   <si>
     <t>id</t>
@@ -88,16 +88,16 @@
     <t>平板电脑</t>
   </si>
   <si>
-    <t>activity_icon_gift151_kl</t>
-  </si>
-  <si>
-    <t>可乐12瓶</t>
+    <t>activity_icon_gift151_pj</t>
+  </si>
+  <si>
+    <t>青岛特制啤酒9罐</t>
   </si>
   <si>
     <t>activity_icon_gift151_qzs</t>
   </si>
   <si>
-    <t>亲嘴烧30片</t>
+    <t>亲嘴烧30袋</t>
   </si>
   <si>
     <t>activity_icon_gift151_cz</t>
@@ -169,13 +169,13 @@
     <t>change_type</t>
   </si>
   <si>
-    <t>box_exchange_active_award_96</t>
-  </si>
-  <si>
-    <t>box_exchange_active_award_97</t>
-  </si>
-  <si>
-    <t>box_exchange_active_award_98</t>
+    <t>box_exchange_active_award_101</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_102</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_103</t>
   </si>
   <si>
     <t>image</t>
@@ -187,28 +187,25 @@
     <t>offset</t>
   </si>
   <si>
-    <t>activity_icon_gift151_jlyy</t>
-  </si>
-  <si>
-    <t>金龙鱼油900ml</t>
+    <t>原浆啤酒1L</t>
   </si>
   <si>
     <t>0,20,50,100,200,400</t>
   </si>
   <si>
-    <t>activity_icon_gift151_ysyn</t>
-  </si>
-  <si>
-    <t>椰汁24盒</t>
+    <t>activity_icon_gift151_fs</t>
+  </si>
+  <si>
+    <t>抖音雪糕风扇</t>
   </si>
   <si>
     <t>0,100,500,1000,1500,2200</t>
   </si>
   <si>
-    <t>activity_icon_gift151_dg</t>
-  </si>
-  <si>
-    <t>美的电火锅</t>
+    <t>activity_icon_gift151_kts</t>
+  </si>
+  <si>
+    <t>南极人空调扇</t>
   </si>
   <si>
     <t>0,100,500,1000,1500,3500</t>
@@ -245,6 +242,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -254,107 +357,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,22 +373,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,19 +395,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,31 +491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,97 +527,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,25 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,21 +586,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,11 +613,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,30 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -697,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,137 +706,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1269,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1623110400</v>
+        <v>1625529600</v>
       </c>
       <c r="F2">
-        <v>1623686399</v>
+        <v>1626105599</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1293,13 +1293,14 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1337,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>12073</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
@@ -1354,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>12074</v>
+        <v>12101</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
@@ -1371,7 +1372,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>12075</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
@@ -1388,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>12076</v>
+        <v>12103</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
@@ -1405,177 +1406,177 @@
         <v>28</v>
       </c>
       <c r="F6" s="2">
-        <v>12077</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>12078</v>
+        <v>12105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="2">
-        <v>12079</v>
+        <v>12106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="2">
-        <v>12080</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="2">
-        <v>12081</v>
+        <v>12108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="2">
-        <v>12082</v>
+        <v>12109</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="2">
-        <v>12083</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="2">
-        <v>12084</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="2">
-        <v>12085</v>
+        <v>12112</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="2">
-        <v>12086</v>
+        <v>12113</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="2">
-        <v>12087</v>
+        <v>12114</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1592,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1620,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1000655</v>
-      </c>
-      <c r="C2">
-        <v>96</v>
+        <v>1000699</v>
+      </c>
+      <c r="C2" s="3">
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1634,10 +1635,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1000656</v>
-      </c>
-      <c r="C3">
-        <v>97</v>
+        <v>1000700</v>
+      </c>
+      <c r="C3" s="3">
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -1648,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1000657</v>
-      </c>
-      <c r="C4">
-        <v>98</v>
+        <v>1000701</v>
+      </c>
+      <c r="C4" s="3">
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -1669,8 +1670,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1699,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
@@ -1713,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
@@ -1727,13 +1728,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_052_qfhl_config.xlsx
+++ b/config_Release/activity_052_qfhl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>condiy_key</t>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0","prop_grade",</t>
-  </si>
-  <si>
-    <t>300,10</t>
   </si>
   <si>
     <t>id</t>
@@ -313,6 +307,14 @@
   </si>
   <si>
     <t>activity_icon_pg13pro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,300</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,13 +725,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I17:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
@@ -758,10 +763,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -772,27 +777,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="F2">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -800,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -814,22 +820,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -837,13 +843,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2">
         <v>12130</v>
@@ -854,13 +860,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>12131</v>
@@ -871,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2">
         <v>12132</v>
@@ -888,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <v>12133</v>
@@ -905,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
         <v>12134</v>
@@ -922,13 +928,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>12135</v>
@@ -939,13 +945,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>12136</v>
@@ -956,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>12137</v>
@@ -973,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
         <v>12138</v>
@@ -990,13 +996,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>12139</v>
@@ -1007,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="2">
         <v>12140</v>
@@ -1024,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>12141</v>
@@ -1041,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>12142</v>
@@ -1058,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
         <v>12143</v>
@@ -1075,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2">
         <v>12144</v>
@@ -1111,16 +1117,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1134,7 +1140,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1148,7 +1154,7 @@
         <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1162,7 +1168,7 @@
         <v>109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1183,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,16 +1195,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -1206,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -1220,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -1234,13 +1240,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
